--- a/Estatisticas_times.xlsx
+++ b/Estatisticas_times.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9A49FCF-2F05-41D1-A931-FE471768032E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\Faculdade\Topicos1\lista4_desafio\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA460B78-06EC-4D12-8F7E-2165A3669EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -15,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -29,18 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t>Pais</t>
-  </si>
-  <si>
-    <t>Jogos</t>
-  </si>
-  <si>
-    <t>Gols_feitos</t>
-  </si>
-  <si>
-    <t>Gosl_sofridos</t>
-  </si>
-  <si>
     <t> Argentina</t>
   </si>
   <si>
@@ -126,13 +117,25 @@
   </si>
   <si>
     <t> USA</t>
+  </si>
+  <si>
+    <t>PAIS</t>
+  </si>
+  <si>
+    <t>JOGOS</t>
+  </si>
+  <si>
+    <t>GOLS_FEITOS</t>
+  </si>
+  <si>
+    <t>GOLS_SOFRIDOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,7 +198,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -493,35 +496,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>15</v>
@@ -533,9 +534,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15</v>
@@ -547,9 +548,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -561,9 +562,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
@@ -575,9 +576,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>15</v>
@@ -589,9 +590,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>15</v>
@@ -603,9 +604,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>15</v>
@@ -617,9 +618,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15</v>
@@ -631,9 +632,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15</v>
@@ -645,9 +646,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15</v>
@@ -659,9 +660,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>15</v>
@@ -673,9 +674,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15</v>
@@ -687,9 +688,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15</v>
@@ -701,9 +702,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15</v>
@@ -715,9 +716,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -729,9 +730,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
@@ -743,9 +744,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15</v>
@@ -757,9 +758,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>15</v>
@@ -771,9 +772,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15</v>
@@ -785,9 +786,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>15</v>
@@ -799,9 +800,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15</v>
@@ -813,9 +814,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15</v>
@@ -827,9 +828,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15</v>
@@ -841,9 +842,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15</v>
@@ -855,9 +856,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15</v>
@@ -869,9 +870,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15</v>
@@ -883,9 +884,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15</v>
@@ -897,9 +898,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15</v>
@@ -911,9 +912,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15</v>
@@ -1066,9 +1067,27 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{780ACBA0-451D-4A6C-A44C-D0EC89FEF420}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{780ACBA0-451D-4A6C-A44C-D0EC89FEF420}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="165aa75b-dfe3-4386-ae3d-5ea357717ba7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6E686C-B89B-4953-9060-E282060FC73D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6E686C-B89B-4953-9060-E282060FC73D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Estatisticas_times.xlsx
+++ b/Estatisticas_times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\Faculdade\Topicos1\lista4_desafio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA460B78-06EC-4D12-8F7E-2165A3669EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B66A4AD-684C-4AD1-BBB4-5D32334CF642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,93 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t> Argentina</t>
-  </si>
-  <si>
-    <t> Belgium</t>
-  </si>
-  <si>
-    <t> Brazil</t>
-  </si>
-  <si>
-    <t> Cameroon</t>
-  </si>
-  <si>
-    <t> Canada</t>
-  </si>
-  <si>
-    <t> Croatia</t>
-  </si>
-  <si>
-    <t> Denmark</t>
-  </si>
-  <si>
-    <t> Ecuador</t>
-  </si>
-  <si>
-    <t> England</t>
-  </si>
-  <si>
-    <t> France</t>
-  </si>
-  <si>
-    <t> Germany</t>
-  </si>
-  <si>
-    <t> Ghana</t>
-  </si>
-  <si>
-    <t> Iran</t>
-  </si>
-  <si>
-    <t> Japan</t>
-  </si>
-  <si>
-    <t> Mexico</t>
-  </si>
-  <si>
-    <t> Morocco</t>
-  </si>
-  <si>
-    <t> Netherlands</t>
-  </si>
-  <si>
-    <t> Poland</t>
-  </si>
-  <si>
-    <t> Portugal</t>
-  </si>
-  <si>
-    <t> Qatar</t>
-  </si>
-  <si>
-    <t> Saudi Arabia</t>
-  </si>
-  <si>
-    <t> Senegal</t>
-  </si>
-  <si>
-    <t> Serbia</t>
-  </si>
-  <si>
-    <t> South Korea</t>
-  </si>
-  <si>
-    <t> Spain</t>
-  </si>
-  <si>
-    <t> Switzerland</t>
-  </si>
-  <si>
-    <t> Tunisia</t>
-  </si>
-  <si>
-    <t> Uruguay</t>
-  </si>
-  <si>
-    <t> USA</t>
-  </si>
-  <si>
     <t>PAIS</t>
   </si>
   <si>
@@ -129,6 +42,93 @@
   </si>
   <si>
     <t>GOLS_SOFRIDOS</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
@@ -501,28 +501,28 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>15</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>15</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>15</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>15</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>15</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>15</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>15</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>15</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>15</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>15</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>15</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>15</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>15</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>15</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>15</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>15</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>15</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>15</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>15</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>15</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>15</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1">
         <v>15</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1">
         <v>15</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1">
         <v>15</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1">
         <v>15</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1">
         <v>15</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1">
         <v>15</v>
